--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.0563225123984</v>
+        <v>38.969508</v>
       </c>
       <c r="H2">
-        <v>38.0563225123984</v>
+        <v>116.908524</v>
       </c>
       <c r="I2">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J2">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.7618441652338</v>
+        <v>2.814284333333333</v>
       </c>
       <c r="N2">
-        <v>2.7618441652338</v>
+        <v>8.442852999999999</v>
       </c>
       <c r="O2">
-        <v>0.8691094070542233</v>
+        <v>0.7633363087964763</v>
       </c>
       <c r="P2">
-        <v>0.8691094070542233</v>
+        <v>0.7633363087964762</v>
       </c>
       <c r="Q2">
-        <v>105.1056322811232</v>
+        <v>109.671275842108</v>
       </c>
       <c r="R2">
-        <v>105.1056322811232</v>
+        <v>987.0414825789719</v>
       </c>
       <c r="S2">
-        <v>0.5998587051781915</v>
+        <v>0.525735393578418</v>
       </c>
       <c r="T2">
-        <v>0.5998587051781915</v>
+        <v>0.525735393578418</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.0563225123984</v>
+        <v>38.969508</v>
       </c>
       <c r="H3">
-        <v>38.0563225123984</v>
+        <v>116.908524</v>
       </c>
       <c r="I3">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J3">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.415942362925928</v>
+        <v>0.1814093333333333</v>
       </c>
       <c r="N3">
-        <v>0.415942362925928</v>
+        <v>0.5442279999999999</v>
       </c>
       <c r="O3">
-        <v>0.1308905929457767</v>
+        <v>0.04920481176963387</v>
       </c>
       <c r="P3">
-        <v>0.1308905929457767</v>
+        <v>0.04920481176963386</v>
       </c>
       <c r="Q3">
-        <v>15.82923671007818</v>
+        <v>7.069432466607998</v>
       </c>
       <c r="R3">
-        <v>15.82923671007818</v>
+        <v>63.62489219947199</v>
       </c>
       <c r="S3">
-        <v>0.09034059574913886</v>
+        <v>0.03388900905610879</v>
       </c>
       <c r="T3">
-        <v>0.09034059574913886</v>
+        <v>0.03388900905610878</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.677459575428619</v>
+        <v>38.969508</v>
       </c>
       <c r="H4">
-        <v>9.677459575428619</v>
+        <v>116.908524</v>
       </c>
       <c r="I4">
-        <v>0.1755129080466787</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J4">
-        <v>0.1755129080466787</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.7618441652338</v>
+        <v>0.6911273333333333</v>
       </c>
       <c r="N4">
-        <v>2.7618441652338</v>
+        <v>2.073382</v>
       </c>
       <c r="O4">
-        <v>0.8691094070542233</v>
+        <v>0.1874588794338899</v>
       </c>
       <c r="P4">
-        <v>0.8691094070542233</v>
+        <v>0.1874588794338899</v>
       </c>
       <c r="Q4">
-        <v>26.7276352626835</v>
+        <v>26.932892145352</v>
       </c>
       <c r="R4">
-        <v>26.7276352626835</v>
+        <v>242.396029308168</v>
       </c>
       <c r="S4">
-        <v>0.1525399194428114</v>
+        <v>0.1291092361561202</v>
       </c>
       <c r="T4">
-        <v>0.1525399194428114</v>
+        <v>0.1291092361561202</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.677459575428619</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H5">
-        <v>9.677459575428619</v>
+        <v>29.057191</v>
       </c>
       <c r="I5">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J5">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.415942362925928</v>
+        <v>2.814284333333333</v>
       </c>
       <c r="N5">
-        <v>0.415942362925928</v>
+        <v>8.442852999999999</v>
       </c>
       <c r="O5">
-        <v>0.1308905929457767</v>
+        <v>0.7633363087964763</v>
       </c>
       <c r="P5">
-        <v>0.1308905929457767</v>
+        <v>0.7633363087964762</v>
       </c>
       <c r="Q5">
-        <v>4.025265402923928</v>
+        <v>27.25839913399144</v>
       </c>
       <c r="R5">
-        <v>4.025265402923928</v>
+        <v>245.325592205923</v>
       </c>
       <c r="S5">
-        <v>0.02297298860386737</v>
+        <v>0.1306696314690302</v>
       </c>
       <c r="T5">
-        <v>0.02297298860386737</v>
+        <v>0.1306696314690302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.559564399262086</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H6">
-        <v>0.559564399262086</v>
+        <v>29.057191</v>
       </c>
       <c r="I6">
-        <v>0.01014840456716986</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J6">
-        <v>0.01014840456716986</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.7618441652338</v>
+        <v>0.1814093333333333</v>
       </c>
       <c r="N6">
-        <v>2.7618441652338</v>
+        <v>0.5442279999999999</v>
       </c>
       <c r="O6">
-        <v>0.8691094070542233</v>
+        <v>0.04920481176963387</v>
       </c>
       <c r="P6">
-        <v>0.8691094070542233</v>
+        <v>0.04920481176963386</v>
       </c>
       <c r="Q6">
-        <v>1.545429671174549</v>
+        <v>1.757081882616444</v>
       </c>
       <c r="R6">
-        <v>1.545429671174549</v>
+        <v>15.813736943548</v>
       </c>
       <c r="S6">
-        <v>0.008820073875919373</v>
+        <v>0.008422990687523203</v>
       </c>
       <c r="T6">
-        <v>0.008820073875919373</v>
+        <v>0.008422990687523202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.559564399262086</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H7">
-        <v>0.559564399262086</v>
+        <v>29.057191</v>
       </c>
       <c r="I7">
-        <v>0.01014840456716986</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J7">
-        <v>0.01014840456716986</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.415942362925928</v>
+        <v>0.6911273333333333</v>
       </c>
       <c r="N7">
-        <v>0.415942362925928</v>
+        <v>2.073382</v>
       </c>
       <c r="O7">
-        <v>0.1308905929457767</v>
+        <v>0.1874588794338899</v>
       </c>
       <c r="P7">
-        <v>0.1308905929457767</v>
+        <v>0.1874588794338899</v>
       </c>
       <c r="Q7">
-        <v>0.2327465384382995</v>
+        <v>6.694072976662444</v>
       </c>
       <c r="R7">
-        <v>0.2327465384382995</v>
+        <v>60.24665678996201</v>
       </c>
       <c r="S7">
-        <v>0.001328330691250492</v>
+        <v>0.03208963389917137</v>
       </c>
       <c r="T7">
-        <v>0.001328330691250492</v>
+        <v>0.03208963389917137</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.395774929194067</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H8">
-        <v>0.395774929194067</v>
+        <v>1.82029</v>
       </c>
       <c r="I8">
-        <v>0.007177876405827559</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J8">
-        <v>0.007177876405827559</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.7618441652338</v>
+        <v>2.814284333333333</v>
       </c>
       <c r="N8">
-        <v>2.7618441652338</v>
+        <v>8.442852999999999</v>
       </c>
       <c r="O8">
-        <v>0.8691094070542233</v>
+        <v>0.7633363087964763</v>
       </c>
       <c r="P8">
-        <v>0.8691094070542233</v>
+        <v>0.7633363087964762</v>
       </c>
       <c r="Q8">
-        <v>1.093068678940454</v>
+        <v>1.707604543041111</v>
       </c>
       <c r="R8">
-        <v>1.093068678940454</v>
+        <v>15.36844088737</v>
       </c>
       <c r="S8">
-        <v>0.006238359906977289</v>
+        <v>0.008185809270647012</v>
       </c>
       <c r="T8">
-        <v>0.006238359906977289</v>
+        <v>0.00818580927064701</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.395774929194067</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H9">
-        <v>0.395774929194067</v>
+        <v>1.82029</v>
       </c>
       <c r="I9">
-        <v>0.007177876405827559</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J9">
-        <v>0.007177876405827559</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.415942362925928</v>
+        <v>0.1814093333333333</v>
       </c>
       <c r="N9">
-        <v>0.415942362925928</v>
+        <v>0.5442279999999999</v>
       </c>
       <c r="O9">
-        <v>0.1308905929457767</v>
+        <v>0.04920481176963387</v>
       </c>
       <c r="P9">
-        <v>0.1308905929457767</v>
+        <v>0.04920481176963386</v>
       </c>
       <c r="Q9">
-        <v>0.1646195592358221</v>
+        <v>0.1100725317911111</v>
       </c>
       <c r="R9">
-        <v>0.1646195592358221</v>
+        <v>0.9906527861199999</v>
       </c>
       <c r="S9">
-        <v>0.00093951649885027</v>
+        <v>0.0005276589095825405</v>
       </c>
       <c r="T9">
-        <v>0.00093951649885027</v>
+        <v>0.0005276589095825405</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.44904296792746</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H10">
-        <v>6.44904296792746</v>
+        <v>1.82029</v>
       </c>
       <c r="I10">
-        <v>0.1169615100529935</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J10">
-        <v>0.1169615100529935</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.7618441652338</v>
+        <v>0.6911273333333333</v>
       </c>
       <c r="N10">
-        <v>2.7618441652338</v>
+        <v>2.073382</v>
       </c>
       <c r="O10">
-        <v>0.8691094070542233</v>
+        <v>0.1874588794338899</v>
       </c>
       <c r="P10">
-        <v>0.8691094070542233</v>
+        <v>0.1874588794338899</v>
       </c>
       <c r="Q10">
-        <v>17.81125169231252</v>
+        <v>0.4193507245311111</v>
       </c>
       <c r="R10">
-        <v>17.81125169231252</v>
+        <v>3.77415652078</v>
       </c>
       <c r="S10">
-        <v>0.1016523486503238</v>
+        <v>0.002010257622298131</v>
       </c>
       <c r="T10">
-        <v>0.1016523486503238</v>
+        <v>0.002010257622298131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4787493333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.436248</v>
+      </c>
+      <c r="I11">
+        <v>0.008461250535040448</v>
+      </c>
+      <c r="J11">
+        <v>0.008461250535040449</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.814284333333333</v>
+      </c>
+      <c r="N11">
+        <v>8.442852999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.7633363087964763</v>
+      </c>
+      <c r="P11">
+        <v>0.7633363087964762</v>
+      </c>
+      <c r="Q11">
+        <v>1.347336748393778</v>
+      </c>
+      <c r="R11">
+        <v>12.126030735544</v>
+      </c>
+      <c r="S11">
+        <v>0.006458779751219985</v>
+      </c>
+      <c r="T11">
+        <v>0.006458779751219986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4787493333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.436248</v>
+      </c>
+      <c r="I12">
+        <v>0.008461250535040448</v>
+      </c>
+      <c r="J12">
+        <v>0.008461250535040449</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1814093333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.5442279999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.04920481176963387</v>
+      </c>
+      <c r="P12">
+        <v>0.04920481176963386</v>
+      </c>
+      <c r="Q12">
+        <v>0.08684959739377776</v>
+      </c>
+      <c r="R12">
+        <v>0.7816463765439999</v>
+      </c>
+      <c r="S12">
+        <v>0.0004163342399123791</v>
+      </c>
+      <c r="T12">
+        <v>0.0004163342399123792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.44904296792746</v>
-      </c>
-      <c r="H11">
-        <v>6.44904296792746</v>
-      </c>
-      <c r="I11">
-        <v>0.1169615100529935</v>
-      </c>
-      <c r="J11">
-        <v>0.1169615100529935</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.415942362925928</v>
-      </c>
-      <c r="N11">
-        <v>0.415942362925928</v>
-      </c>
-      <c r="O11">
-        <v>0.1308905929457767</v>
-      </c>
-      <c r="P11">
-        <v>0.1308905929457767</v>
-      </c>
-      <c r="Q11">
-        <v>2.682430170690588</v>
-      </c>
-      <c r="R11">
-        <v>2.682430170690588</v>
-      </c>
-      <c r="S11">
-        <v>0.01530916140266974</v>
-      </c>
-      <c r="T11">
-        <v>0.01530916140266974</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4787493333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.436248</v>
+      </c>
+      <c r="I13">
+        <v>0.008461250535040448</v>
+      </c>
+      <c r="J13">
+        <v>0.008461250535040449</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6911273333333333</v>
+      </c>
+      <c r="N13">
+        <v>2.073382</v>
+      </c>
+      <c r="O13">
+        <v>0.1874588794338899</v>
+      </c>
+      <c r="P13">
+        <v>0.1874588794338899</v>
+      </c>
+      <c r="Q13">
+        <v>0.3308767500817777</v>
+      </c>
+      <c r="R13">
+        <v>2.977890750736</v>
+      </c>
+      <c r="S13">
+        <v>0.001586136543908084</v>
+      </c>
+      <c r="T13">
+        <v>0.001586136543908084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.840640999999999</v>
+      </c>
+      <c r="H14">
+        <v>20.521923</v>
+      </c>
+      <c r="I14">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="J14">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.814284333333333</v>
+      </c>
+      <c r="N14">
+        <v>8.442852999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.7633363087964763</v>
+      </c>
+      <c r="P14">
+        <v>0.7633363087964762</v>
+      </c>
+      <c r="Q14">
+        <v>19.25150879625766</v>
+      </c>
+      <c r="R14">
+        <v>173.263579166319</v>
+      </c>
+      <c r="S14">
+        <v>0.09228669472716111</v>
+      </c>
+      <c r="T14">
+        <v>0.0922866947271611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.840640999999999</v>
+      </c>
+      <c r="H15">
+        <v>20.521923</v>
+      </c>
+      <c r="I15">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="J15">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1814093333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.5442279999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.04920481176963387</v>
+      </c>
+      <c r="P15">
+        <v>0.04920481176963386</v>
+      </c>
+      <c r="Q15">
+        <v>1.240956123382666</v>
+      </c>
+      <c r="R15">
+        <v>11.168605110444</v>
+      </c>
+      <c r="S15">
+        <v>0.005948818876506961</v>
+      </c>
+      <c r="T15">
+        <v>0.005948818876506961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.840640999999999</v>
+      </c>
+      <c r="H16">
+        <v>20.521923</v>
+      </c>
+      <c r="I16">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="J16">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6911273333333333</v>
+      </c>
+      <c r="N16">
+        <v>2.073382</v>
+      </c>
+      <c r="O16">
+        <v>0.1874588794338899</v>
+      </c>
+      <c r="P16">
+        <v>0.1874588794338899</v>
+      </c>
+      <c r="Q16">
+        <v>4.727753972620666</v>
+      </c>
+      <c r="R16">
+        <v>42.54978575358599</v>
+      </c>
+      <c r="S16">
+        <v>0.02266361521239216</v>
+      </c>
+      <c r="T16">
+        <v>0.02266361521239216</v>
       </c>
     </row>
   </sheetData>
